--- a/INTLINE/data/136/BOI/old/Price-competitiveness indicator.xlsx
+++ b/INTLINE/data/136/BOI/old/Price-competitiveness indicator.xlsx
@@ -155,14 +155,14 @@
       <c r="A2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-09-30</t>
+            <t xml:space="preserve">2021-12-31</t>
           </r>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.06085</t>
+            <t xml:space="preserve">95.92666</t>
           </r>
         </is>
       </c>
@@ -171,14 +171,14 @@
       <c r="A3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-08-31</t>
+            <t xml:space="preserve">2021-11-30</t>
           </r>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.79638</t>
+            <t xml:space="preserve">95.92522</t>
           </r>
         </is>
       </c>
@@ -187,14 +187,14 @@
       <c r="A4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-07-31</t>
+            <t xml:space="preserve">2021-10-31</t>
           </r>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.96094</t>
+            <t xml:space="preserve">96.31955</t>
           </r>
         </is>
       </c>
@@ -203,14 +203,14 @@
       <c r="A5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-06-30</t>
+            <t xml:space="preserve">2021-09-30</t>
           </r>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.34307</t>
+            <t xml:space="preserve">97.10723</t>
           </r>
         </is>
       </c>
@@ -219,14 +219,14 @@
       <c r="A6" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-05-31</t>
+            <t xml:space="preserve">2021-08-31</t>
           </r>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.40666</t>
+            <t xml:space="preserve">96.83511</t>
           </r>
         </is>
       </c>
@@ -235,14 +235,14 @@
       <c r="A7" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-04-30</t>
+            <t xml:space="preserve">2021-07-31</t>
           </r>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.3547</t>
+            <t xml:space="preserve">96.98555</t>
           </r>
         </is>
       </c>
@@ -251,14 +251,14 @@
       <c r="A8" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-03-31</t>
+            <t xml:space="preserve">2021-06-30</t>
           </r>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.38034</t>
+            <t xml:space="preserve">97.35756</t>
           </r>
         </is>
       </c>
@@ -267,14 +267,14 @@
       <c r="A9" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-02-28</t>
+            <t xml:space="preserve">2021-05-31</t>
           </r>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.74824</t>
+            <t xml:space="preserve">97.40641</t>
           </r>
         </is>
       </c>
@@ -283,14 +283,14 @@
       <c r="A10" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-01-31</t>
+            <t xml:space="preserve">2021-04-30</t>
           </r>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.45626</t>
+            <t xml:space="preserve">97.35273</t>
           </r>
         </is>
       </c>
@@ -299,14 +299,14 @@
       <c r="A11" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-12-31</t>
+            <t xml:space="preserve">2021-03-31</t>
           </r>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.05546</t>
+            <t xml:space="preserve">97.38025</t>
           </r>
         </is>
       </c>
@@ -315,14 +315,14 @@
       <c r="A12" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-11-30</t>
+            <t xml:space="preserve">2021-02-28</t>
           </r>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.62031</t>
+            <t xml:space="preserve">97.75099</t>
           </r>
         </is>
       </c>
@@ -331,14 +331,14 @@
       <c r="A13" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-10-31</t>
+            <t xml:space="preserve">2021-01-31</t>
           </r>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.07459</t>
+            <t xml:space="preserve">98.45405</t>
           </r>
         </is>
       </c>
@@ -347,14 +347,14 @@
       <c r="A14" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-09-30</t>
+            <t xml:space="preserve">2020-12-31</t>
           </r>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.20783</t>
+            <t xml:space="preserve">99.05639</t>
           </r>
         </is>
       </c>
@@ -363,14 +363,14 @@
       <c r="A15" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-08-31</t>
+            <t xml:space="preserve">2020-11-30</t>
           </r>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.35145</t>
+            <t xml:space="preserve">98.61984</t>
           </r>
         </is>
       </c>
@@ -379,14 +379,14 @@
       <c r="A16" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-07-31</t>
+            <t xml:space="preserve">2020-10-31</t>
           </r>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.41036</t>
+            <t xml:space="preserve">99.07345</t>
           </r>
         </is>
       </c>
@@ -395,14 +395,14 @@
       <c r="A17" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-06-30</t>
+            <t xml:space="preserve">2020-09-30</t>
           </r>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.18419</t>
+            <t xml:space="preserve">99.20537</t>
           </r>
         </is>
       </c>
@@ -411,14 +411,14 @@
       <c r="A18" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-05-31</t>
+            <t xml:space="preserve">2020-08-31</t>
           </r>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.5942</t>
+            <t xml:space="preserve">99.35008</t>
           </r>
         </is>
       </c>
@@ -427,14 +427,14 @@
       <c r="A19" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-04-30</t>
+            <t xml:space="preserve">2020-07-31</t>
           </r>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.57531</t>
+            <t xml:space="preserve">98.40844</t>
           </r>
         </is>
       </c>
@@ -443,14 +443,14 @@
       <c r="A20" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-03-31</t>
+            <t xml:space="preserve">2020-06-30</t>
           </r>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.42215</t>
+            <t xml:space="preserve">98.18127</t>
           </r>
         </is>
       </c>
@@ -459,14 +459,14 @@
       <c r="A21" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-02-29</t>
+            <t xml:space="preserve">2020-05-31</t>
           </r>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.72703</t>
+            <t xml:space="preserve">97.59163</t>
           </r>
         </is>
       </c>
@@ -475,14 +475,14 @@
       <c r="A22" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-01-31</t>
+            <t xml:space="preserve">2020-04-30</t>
           </r>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.1777</t>
+            <t xml:space="preserve">97.57252</t>
           </r>
         </is>
       </c>
@@ -491,14 +491,14 @@
       <c r="A23" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-12-31</t>
+            <t xml:space="preserve">2020-03-31</t>
           </r>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.33225</t>
+            <t xml:space="preserve">97.42395</t>
           </r>
         </is>
       </c>
@@ -507,14 +507,14 @@
       <c r="A24" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-11-30</t>
+            <t xml:space="preserve">2020-02-29</t>
           </r>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.34736</t>
+            <t xml:space="preserve">95.72618</t>
           </r>
         </is>
       </c>
@@ -523,14 +523,14 @@
       <c r="A25" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-10-31</t>
+            <t xml:space="preserve">2020-01-31</t>
           </r>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.60349</t>
+            <t xml:space="preserve">96.18104</t>
           </r>
         </is>
       </c>
@@ -539,14 +539,14 @@
       <c r="A26" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-09-30</t>
+            <t xml:space="preserve">2019-12-31</t>
           </r>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.60676</t>
+            <t xml:space="preserve">96.33433</t>
           </r>
         </is>
       </c>
@@ -555,14 +555,14 @@
       <c r="A27" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-08-31</t>
+            <t xml:space="preserve">2019-11-30</t>
           </r>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.98823</t>
+            <t xml:space="preserve">96.34961</t>
           </r>
         </is>
       </c>
@@ -571,14 +571,14 @@
       <c r="A28" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-07-31</t>
+            <t xml:space="preserve">2019-10-31</t>
           </r>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.44813</t>
+            <t xml:space="preserve">96.60582</t>
           </r>
         </is>
       </c>
@@ -587,14 +587,14 @@
       <c r="A29" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-06-30</t>
+            <t xml:space="preserve">2019-09-30</t>
           </r>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.69615</t>
+            <t xml:space="preserve">96.60916</t>
           </r>
         </is>
       </c>
@@ -603,14 +603,14 @@
       <c r="A30" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-05-31</t>
+            <t xml:space="preserve">2019-08-31</t>
           </r>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.46661</t>
+            <t xml:space="preserve">96.99041</t>
           </r>
         </is>
       </c>
@@ -619,14 +619,14 @@
       <c r="A31" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-04-30</t>
+            <t xml:space="preserve">2019-07-31</t>
           </r>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.13651</t>
+            <t xml:space="preserve">96.45023</t>
           </r>
         </is>
       </c>
@@ -635,14 +635,14 @@
       <c r="A32" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-03-31</t>
+            <t xml:space="preserve">2019-06-30</t>
           </r>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.56504</t>
+            <t xml:space="preserve">96.69831</t>
           </r>
         </is>
       </c>
@@ -651,14 +651,14 @@
       <c r="A33" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-02-28</t>
+            <t xml:space="preserve">2019-05-31</t>
           </r>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.97717</t>
+            <t xml:space="preserve">96.46902</t>
           </r>
         </is>
       </c>
@@ -667,14 +667,14 @@
       <c r="A34" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-01-31</t>
+            <t xml:space="preserve">2019-04-30</t>
           </r>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.44184</t>
+            <t xml:space="preserve">96.1386</t>
           </r>
         </is>
       </c>
@@ -683,14 +683,14 @@
       <c r="A35" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-12-31</t>
+            <t xml:space="preserve">2019-03-31</t>
           </r>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.55029</t>
+            <t xml:space="preserve">96.5674</t>
           </r>
         </is>
       </c>
@@ -699,14 +699,14 @@
       <c r="A36" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-11-30</t>
+            <t xml:space="preserve">2019-02-28</t>
           </r>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.31621</t>
+            <t xml:space="preserve">96.97911</t>
           </r>
         </is>
       </c>
@@ -715,14 +715,14 @@
       <c r="A37" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-10-31</t>
+            <t xml:space="preserve">2019-01-31</t>
           </r>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.85406</t>
+            <t xml:space="preserve">97.44423</t>
           </r>
         </is>
       </c>
@@ -731,14 +731,14 @@
       <c r="A38" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-09-30</t>
+            <t xml:space="preserve">2018-12-31</t>
           </r>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.555</t>
+            <t xml:space="preserve">97.55242</t>
           </r>
         </is>
       </c>
@@ -747,14 +747,14 @@
       <c r="A39" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-08-31</t>
+            <t xml:space="preserve">2018-11-30</t>
           </r>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.18986</t>
+            <t xml:space="preserve">97.31847</t>
           </r>
         </is>
       </c>
@@ -763,14 +763,14 @@
       <c r="A40" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-07-31</t>
+            <t xml:space="preserve">2018-10-31</t>
           </r>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.04378</t>
+            <t xml:space="preserve">97.8564</t>
           </r>
         </is>
       </c>
@@ -779,14 +779,14 @@
       <c r="A41" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-06-30</t>
+            <t xml:space="preserve">2018-09-30</t>
           </r>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.42944</t>
+            <t xml:space="preserve">98.55735</t>
           </r>
         </is>
       </c>
@@ -795,14 +795,14 @@
       <c r="A42" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-05-31</t>
+            <t xml:space="preserve">2018-08-31</t>
           </r>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.60687</t>
+            <t xml:space="preserve">98.19215</t>
           </r>
         </is>
       </c>
@@ -811,14 +811,14 @@
       <c r="A43" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-04-30</t>
+            <t xml:space="preserve">2018-07-31</t>
           </r>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.47157</t>
+            <t xml:space="preserve">98.04592</t>
           </r>
         </is>
       </c>
@@ -827,14 +827,14 @@
       <c r="A44" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-03-31</t>
+            <t xml:space="preserve">2018-06-30</t>
           </r>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.66783</t>
+            <t xml:space="preserve">97.43168</t>
           </r>
         </is>
       </c>
@@ -843,14 +843,14 @@
       <c r="A45" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-02-28</t>
+            <t xml:space="preserve">2018-05-31</t>
           </r>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.52348</t>
+            <t xml:space="preserve">97.6091</t>
           </r>
         </is>
       </c>
@@ -859,14 +859,14 @@
       <c r="A46" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-01-31</t>
+            <t xml:space="preserve">2018-04-30</t>
           </r>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.58436</t>
+            <t xml:space="preserve">98.47385</t>
           </r>
         </is>
       </c>
@@ -875,14 +875,14 @@
       <c r="A47" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-12-31</t>
+            <t xml:space="preserve">2018-03-31</t>
           </r>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.51024</t>
+            <t xml:space="preserve">98.67009</t>
           </r>
         </is>
       </c>
@@ -891,14 +891,14 @@
       <c r="A48" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-11-30</t>
+            <t xml:space="preserve">2018-02-28</t>
           </r>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.47342</t>
+            <t xml:space="preserve">98.52544</t>
           </r>
         </is>
       </c>
@@ -907,14 +907,14 @@
       <c r="A49" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-10-31</t>
+            <t xml:space="preserve">2018-01-31</t>
           </r>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.38492</t>
+            <t xml:space="preserve">98.58694</t>
           </r>
         </is>
       </c>
@@ -923,14 +923,14 @@
       <c r="A50" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-09-30</t>
+            <t xml:space="preserve">2017-12-31</t>
           </r>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.52339</t>
+            <t xml:space="preserve">98.51252</t>
           </r>
         </is>
       </c>
@@ -939,14 +939,14 @@
       <c r="A51" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-08-31</t>
+            <t xml:space="preserve">2017-11-30</t>
           </r>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.76922</t>
+            <t xml:space="preserve">98.47565</t>
           </r>
         </is>
       </c>
@@ -955,14 +955,14 @@
       <c r="A52" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-07-31</t>
+            <t xml:space="preserve">2017-10-31</t>
           </r>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.98041</t>
+            <t xml:space="preserve">98.38721</t>
           </r>
         </is>
       </c>
@@ -971,14 +971,14 @@
       <c r="A53" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-06-30</t>
+            <t xml:space="preserve">2017-09-30</t>
           </r>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.06324</t>
+            <t xml:space="preserve">98.52576</t>
           </r>
         </is>
       </c>
@@ -987,14 +987,14 @@
       <c r="A54" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-05-31</t>
+            <t xml:space="preserve">2017-08-31</t>
           </r>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.59963</t>
+            <t xml:space="preserve">98.77143</t>
           </r>
         </is>
       </c>
@@ -1003,14 +1003,14 @@
       <c r="A55" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-04-30</t>
+            <t xml:space="preserve">2017-07-31</t>
           </r>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.55332</t>
+            <t xml:space="preserve">97.98262</t>
           </r>
         </is>
       </c>
@@ -1019,14 +1019,14 @@
       <c r="A56" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-03-31</t>
+            <t xml:space="preserve">2017-06-30</t>
           </r>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.59498</t>
+            <t xml:space="preserve">97.06569</t>
           </r>
         </is>
       </c>
@@ -1035,14 +1035,14 @@
       <c r="A57" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-02-28</t>
+            <t xml:space="preserve">2017-05-31</t>
           </r>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.45223</t>
+            <t xml:space="preserve">96.60186</t>
           </r>
         </is>
       </c>
@@ -1051,14 +1051,14 @@
       <c r="A58" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-01-31</t>
+            <t xml:space="preserve">2017-04-30</t>
           </r>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.95268</t>
+            <t xml:space="preserve">95.5553</t>
           </r>
         </is>
       </c>
@@ -1067,14 +1067,14 @@
       <c r="A59" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-12-31</t>
+            <t xml:space="preserve">2017-03-31</t>
           </r>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.0965</t>
+            <t xml:space="preserve">95.59718</t>
           </r>
         </is>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="A60" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-11-30</t>
+            <t xml:space="preserve">2017-02-28</t>
           </r>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.5965</t>
+            <t xml:space="preserve">95.45449</t>
           </r>
         </is>
       </c>
@@ -1099,14 +1099,14 @@
       <c r="A61" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-10-31</t>
+            <t xml:space="preserve">2017-01-31</t>
           </r>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.19567</t>
+            <t xml:space="preserve">95.95482</t>
           </r>
         </is>
       </c>
@@ -1115,14 +1115,14 @@
       <c r="A62" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-09-30</t>
+            <t xml:space="preserve">2016-12-31</t>
           </r>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.43587</t>
+            <t xml:space="preserve">96.09862</t>
           </r>
         </is>
       </c>
@@ -1131,14 +1131,14 @@
       <c r="A63" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-08-31</t>
+            <t xml:space="preserve">2016-11-30</t>
           </r>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.44068</t>
+            <t xml:space="preserve">96.59871</t>
           </r>
         </is>
       </c>
@@ -1147,14 +1147,14 @@
       <c r="A64" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-07-31</t>
+            <t xml:space="preserve">2016-10-31</t>
           </r>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.19514</t>
+            <t xml:space="preserve">97.19802</t>
           </r>
         </is>
       </c>
@@ -1163,14 +1163,14 @@
       <c r="A65" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-06-30</t>
+            <t xml:space="preserve">2016-09-30</t>
           </r>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.40594</t>
+            <t xml:space="preserve">97.43812</t>
           </r>
         </is>
       </c>
@@ -1179,14 +1179,14 @@
       <c r="A66" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-05-31</t>
+            <t xml:space="preserve">2016-08-31</t>
           </r>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.77552</t>
+            <t xml:space="preserve">97.44299</t>
           </r>
         </is>
       </c>
@@ -1195,14 +1195,14 @@
       <c r="A67" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-04-30</t>
+            <t xml:space="preserve">2016-07-31</t>
           </r>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.5533</t>
+            <t xml:space="preserve">97.19731</t>
           </r>
         </is>
       </c>
@@ -1211,14 +1211,14 @@
       <c r="A68" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-03-31</t>
+            <t xml:space="preserve">2016-06-30</t>
           </r>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.46921</t>
+            <t xml:space="preserve">97.40813</t>
           </r>
         </is>
       </c>
@@ -1227,14 +1227,14 @@
       <c r="A69" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-02-29</t>
+            <t xml:space="preserve">2016-05-31</t>
           </r>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.16404</t>
+            <t xml:space="preserve">97.77772</t>
           </r>
         </is>
       </c>
@@ -1243,14 +1243,14 @@
       <c r="A70" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-01-31</t>
+            <t xml:space="preserve">2016-04-30</t>
           </r>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.44743</t>
+            <t xml:space="preserve">97.55565</t>
           </r>
         </is>
       </c>
@@ -1259,14 +1259,14 @@
       <c r="A71" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-12-31</t>
+            <t xml:space="preserve">2016-03-31</t>
           </r>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.62397</t>
+            <t xml:space="preserve">97.47121</t>
           </r>
         </is>
       </c>
@@ -1275,14 +1275,14 @@
       <c r="A72" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-11-30</t>
+            <t xml:space="preserve">2016-02-29</t>
           </r>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.63623</t>
+            <t xml:space="preserve">98.16596</t>
           </r>
         </is>
       </c>
@@ -1291,14 +1291,14 @@
       <c r="A73" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-10-31</t>
+            <t xml:space="preserve">2016-01-31</t>
           </r>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.29905</t>
+            <t xml:space="preserve">97.45025</t>
           </r>
         </is>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="A74" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-09-30</t>
+            <t xml:space="preserve">2015-12-31</t>
           </r>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.61897</t>
+            <t xml:space="preserve">96.62651</t>
           </r>
         </is>
       </c>
@@ -1323,14 +1323,14 @@
       <c r="A75" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-08-31</t>
+            <t xml:space="preserve">2015-11-30</t>
           </r>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.85581</t>
+            <t xml:space="preserve">95.63851</t>
           </r>
         </is>
       </c>
@@ -1339,14 +1339,14 @@
       <c r="A76" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-07-31</t>
+            <t xml:space="preserve">2015-10-31</t>
           </r>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.41032</t>
+            <t xml:space="preserve">97.30089</t>
           </r>
         </is>
       </c>
@@ -1355,14 +1355,14 @@
       <c r="A77" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-06-30</t>
+            <t xml:space="preserve">2015-09-30</t>
           </r>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.91189</t>
+            <t xml:space="preserve">97.62113</t>
           </r>
         </is>
       </c>
@@ -1371,14 +1371,14 @@
       <c r="A78" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-05-31</t>
+            <t xml:space="preserve">2015-08-31</t>
           </r>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.32721</t>
+            <t xml:space="preserve">96.85881</t>
           </r>
         </is>
       </c>
@@ -1387,14 +1387,14 @@
       <c r="A79" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-04-30</t>
+            <t xml:space="preserve">2015-07-31</t>
           </r>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">94.39249</t>
+            <t xml:space="preserve">95.4118</t>
           </r>
         </is>
       </c>
@@ -1403,14 +1403,14 @@
       <c r="A80" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-03-31</t>
+            <t xml:space="preserve">2015-06-30</t>
           </r>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.07991</t>
+            <t xml:space="preserve">95.91388</t>
           </r>
         </is>
       </c>
@@ -1419,14 +1419,14 @@
       <c r="A81" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-02-28</t>
+            <t xml:space="preserve">2015-05-31</t>
           </r>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.66686</t>
+            <t xml:space="preserve">95.3294</t>
           </r>
         </is>
       </c>
@@ -1435,14 +1435,14 @@
       <c r="A82" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-01-31</t>
+            <t xml:space="preserve">2015-04-30</t>
           </r>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.10615</t>
+            <t xml:space="preserve">94.39483</t>
           </r>
         </is>
       </c>
@@ -1451,14 +1451,14 @@
       <c r="A83" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-12-31</t>
+            <t xml:space="preserve">2015-03-31</t>
           </r>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.86198</t>
+            <t xml:space="preserve">95.08191</t>
           </r>
         </is>
       </c>
@@ -1467,14 +1467,14 @@
       <c r="A84" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-11-30</t>
+            <t xml:space="preserve">2015-02-28</t>
           </r>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.03134</t>
+            <t xml:space="preserve">96.66882</t>
           </r>
         </is>
       </c>
@@ -1483,14 +1483,14 @@
       <c r="A85" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-10-31</t>
+            <t xml:space="preserve">2015-01-31</t>
           </r>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.72049</t>
+            <t xml:space="preserve">97.1088</t>
           </r>
         </is>
       </c>
@@ -1499,14 +1499,14 @@
       <c r="A86" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-09-30</t>
+            <t xml:space="preserve">2014-12-31</t>
           </r>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.80215</t>
+            <t xml:space="preserve">98.8645</t>
           </r>
         </is>
       </c>
@@ -1515,14 +1515,14 @@
       <c r="A87" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-08-31</t>
+            <t xml:space="preserve">2014-11-30</t>
           </r>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.60738</t>
+            <t xml:space="preserve">98.03368</t>
           </r>
         </is>
       </c>
@@ -1531,14 +1531,14 @@
       <c r="A88" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-07-31</t>
+            <t xml:space="preserve">2014-10-31</t>
           </r>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.89243</t>
+            <t xml:space="preserve">97.72237</t>
           </r>
         </is>
       </c>
@@ -1547,14 +1547,14 @@
       <c r="A89" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-06-30</t>
+            <t xml:space="preserve">2014-09-30</t>
           </r>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.15068</t>
+            <t xml:space="preserve">97.80403</t>
           </r>
         </is>
       </c>
@@ -1563,14 +1563,14 @@
       <c r="A90" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-05-31</t>
+            <t xml:space="preserve">2014-08-31</t>
           </r>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.45348</t>
+            <t xml:space="preserve">98.61066</t>
           </r>
         </is>
       </c>
@@ -1579,14 +1579,14 @@
       <c r="A91" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-04-30</t>
+            <t xml:space="preserve">2014-07-31</t>
           </r>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.89265</t>
+            <t xml:space="preserve">98.89403</t>
           </r>
         </is>
       </c>
@@ -1595,14 +1595,14 @@
       <c r="A92" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-03-31</t>
+            <t xml:space="preserve">2014-06-30</t>
           </r>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.10517</t>
+            <t xml:space="preserve">99.15298</t>
           </r>
         </is>
       </c>
@@ -1611,14 +1611,14 @@
       <c r="A93" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-02-28</t>
+            <t xml:space="preserve">2014-05-31</t>
           </r>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.64225</t>
+            <t xml:space="preserve">99.45584</t>
           </r>
         </is>
       </c>
@@ -1627,14 +1627,14 @@
       <c r="A94" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-01-31</t>
+            <t xml:space="preserve">2014-04-30</t>
           </r>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.67855</t>
+            <t xml:space="preserve">99.89481</t>
           </r>
         </is>
       </c>
@@ -1643,14 +1643,14 @@
       <c r="A95" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-12-31</t>
+            <t xml:space="preserve">2014-03-31</t>
           </r>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.97416</t>
+            <t xml:space="preserve">100.10761</t>
           </r>
         </is>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="A96" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-11-30</t>
+            <t xml:space="preserve">2014-02-28</t>
           </r>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.20487</t>
+            <t xml:space="preserve">99.64436</t>
           </r>
         </is>
       </c>
@@ -1675,14 +1675,14 @@
       <c r="A97" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-10-31</t>
+            <t xml:space="preserve">2014-01-31</t>
           </r>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.33865</t>
+            <t xml:space="preserve">99.68084</t>
           </r>
         </is>
       </c>
@@ -1691,14 +1691,14 @@
       <c r="A98" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-09-30</t>
+            <t xml:space="preserve">2013-12-31</t>
           </r>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.96008</t>
+            <t xml:space="preserve">99.97663</t>
           </r>
         </is>
       </c>
@@ -1707,14 +1707,14 @@
       <c r="A99" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-08-31</t>
+            <t xml:space="preserve">2013-11-30</t>
           </r>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.92374</t>
+            <t xml:space="preserve">99.20728</t>
           </r>
         </is>
       </c>
@@ -1723,14 +1723,14 @@
       <c r="A100" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-07-31</t>
+            <t xml:space="preserve">2013-10-31</t>
           </r>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.26725</t>
+            <t xml:space="preserve">99.34059</t>
           </r>
         </is>
       </c>
@@ -1739,14 +1739,14 @@
       <c r="A101" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-06-30</t>
+            <t xml:space="preserve">2013-09-30</t>
           </r>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.29196</t>
+            <t xml:space="preserve">98.9629</t>
           </r>
         </is>
       </c>
@@ -1755,14 +1755,14 @@
       <c r="A102" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-05-31</t>
+            <t xml:space="preserve">2013-08-31</t>
           </r>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.29086</t>
+            <t xml:space="preserve">98.92642</t>
           </r>
         </is>
       </c>
@@ -1771,14 +1771,14 @@
       <c r="A103" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-04-30</t>
+            <t xml:space="preserve">2013-07-31</t>
           </r>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.098</t>
+            <t xml:space="preserve">98.26854</t>
           </r>
         </is>
       </c>
@@ -1787,14 +1787,14 @@
       <c r="A104" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-03-31</t>
+            <t xml:space="preserve">2013-06-30</t>
           </r>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.97336</t>
+            <t xml:space="preserve">98.29407</t>
           </r>
         </is>
       </c>
@@ -1803,14 +1803,14 @@
       <c r="A105" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-02-28</t>
+            <t xml:space="preserve">2013-05-31</t>
           </r>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.90648</t>
+            <t xml:space="preserve">97.29323</t>
           </r>
         </is>
       </c>
@@ -1819,14 +1819,14 @@
       <c r="A106" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-01-31</t>
+            <t xml:space="preserve">2013-04-30</t>
           </r>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.5673</t>
+            <t xml:space="preserve">97.1002</t>
           </r>
         </is>
       </c>
@@ -1835,14 +1835,14 @@
       <c r="A107" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-12-31</t>
+            <t xml:space="preserve">2013-03-31</t>
           </r>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.9031</t>
+            <t xml:space="preserve">96.97572</t>
           </r>
         </is>
       </c>
@@ -1851,14 +1851,14 @@
       <c r="A108" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-11-30</t>
+            <t xml:space="preserve">2013-02-28</t>
           </r>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.0209</t>
+            <t xml:space="preserve">97.90843</t>
           </r>
         </is>
       </c>
@@ -1867,14 +1867,14 @@
       <c r="A109" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-10-31</t>
+            <t xml:space="preserve">2013-01-31</t>
           </r>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.44906</t>
+            <t xml:space="preserve">97.56968</t>
           </r>
         </is>
       </c>
@@ -1883,14 +1883,14 @@
       <c r="A110" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-09-30</t>
+            <t xml:space="preserve">2012-12-31</t>
           </r>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.34191</t>
+            <t xml:space="preserve">96.90558</t>
           </r>
         </is>
       </c>
@@ -1899,14 +1899,14 @@
       <c r="A111" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-08-31</t>
+            <t xml:space="preserve">2012-11-30</t>
           </r>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.47709</t>
+            <t xml:space="preserve">96.02325</t>
           </r>
         </is>
       </c>
@@ -1915,14 +1915,14 @@
       <c r="A112" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-07-31</t>
+            <t xml:space="preserve">2012-10-31</t>
           </r>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.2567</t>
+            <t xml:space="preserve">96.45084</t>
           </r>
         </is>
       </c>
@@ -1931,14 +1931,14 @@
       <c r="A113" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-06-30</t>
+            <t xml:space="preserve">2012-09-30</t>
           </r>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.72656</t>
+            <t xml:space="preserve">96.34421</t>
           </r>
         </is>
       </c>
@@ -1947,14 +1947,14 @@
       <c r="A114" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-05-31</t>
+            <t xml:space="preserve">2012-08-31</t>
           </r>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.86882</t>
+            <t xml:space="preserve">95.47913</t>
           </r>
         </is>
       </c>
@@ -1963,14 +1963,14 @@
       <c r="A115" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-04-30</t>
+            <t xml:space="preserve">2012-07-31</t>
           </r>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.42659</t>
+            <t xml:space="preserve">95.25892</t>
           </r>
         </is>
       </c>
@@ -1979,14 +1979,14 @@
       <c r="A116" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-03-31</t>
+            <t xml:space="preserve">2012-06-30</t>
           </r>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.0206</t>
+            <t xml:space="preserve">95.72847</t>
           </r>
         </is>
       </c>
@@ -1995,14 +1995,14 @@
       <c r="A117" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-02-29</t>
+            <t xml:space="preserve">2012-05-31</t>
           </r>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.97706</t>
+            <t xml:space="preserve">95.87114</t>
           </r>
         </is>
       </c>
@@ -2011,14 +2011,14 @@
       <c r="A118" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-01-31</t>
+            <t xml:space="preserve">2012-04-30</t>
           </r>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.80587</t>
+            <t xml:space="preserve">96.42894</t>
           </r>
         </is>
       </c>
@@ -2027,14 +2027,14 @@
       <c r="A119" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-12-31</t>
+            <t xml:space="preserve">2012-03-31</t>
           </r>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.50896</t>
+            <t xml:space="preserve">97.02291</t>
           </r>
         </is>
       </c>
@@ -2043,14 +2043,14 @@
       <c r="A120" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-11-30</t>
+            <t xml:space="preserve">2012-02-29</t>
           </r>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.11335</t>
+            <t xml:space="preserve">96.97939</t>
           </r>
         </is>
       </c>
@@ -2059,14 +2059,14 @@
       <c r="A121" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-10-31</t>
+            <t xml:space="preserve">2012-01-31</t>
           </r>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.33617</t>
+            <t xml:space="preserve">96.80788</t>
           </r>
         </is>
       </c>
@@ -2075,14 +2075,14 @@
       <c r="A122" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-09-30</t>
+            <t xml:space="preserve">2011-12-31</t>
           </r>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.06488</t>
+            <t xml:space="preserve">97.51134</t>
           </r>
         </is>
       </c>
@@ -2091,14 +2091,14 @@
       <c r="A123" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-08-31</t>
+            <t xml:space="preserve">2011-11-30</t>
           </r>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.57874</t>
+            <t xml:space="preserve">98.11574</t>
           </r>
         </is>
       </c>
@@ -2107,14 +2107,14 @@
       <c r="A124" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-07-31</t>
+            <t xml:space="preserve">2011-10-31</t>
           </r>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.32871</t>
+            <t xml:space="preserve">98.33812</t>
           </r>
         </is>
       </c>
@@ -2123,14 +2123,14 @@
       <c r="A125" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-06-30</t>
+            <t xml:space="preserve">2011-09-30</t>
           </r>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.75163</t>
+            <t xml:space="preserve">98.0676</t>
           </r>
         </is>
       </c>
@@ -2139,14 +2139,14 @@
       <c r="A126" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-05-31</t>
+            <t xml:space="preserve">2011-08-31</t>
           </r>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.57451</t>
+            <t xml:space="preserve">98.58128</t>
           </r>
         </is>
       </c>
@@ -2155,14 +2155,14 @@
       <c r="A127" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-04-30</t>
+            <t xml:space="preserve">2011-07-31</t>
           </r>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.18</t>
+            <t xml:space="preserve">98.33019</t>
           </r>
         </is>
       </c>
@@ -2171,14 +2171,14 @@
       <c r="A128" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-03-31</t>
+            <t xml:space="preserve">2011-06-30</t>
           </r>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.58897</t>
+            <t xml:space="preserve">98.75358</t>
           </r>
         </is>
       </c>
@@ -2187,14 +2187,14 @@
       <c r="A129" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-02-28</t>
+            <t xml:space="preserve">2011-05-31</t>
           </r>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.85016</t>
+            <t xml:space="preserve">98.57687</t>
           </r>
         </is>
       </c>
@@ -2203,14 +2203,14 @@
       <c r="A130" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-01-31</t>
+            <t xml:space="preserve">2011-04-30</t>
           </r>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.29211</t>
+            <t xml:space="preserve">99.18245</t>
           </r>
         </is>
       </c>
@@ -2219,14 +2219,14 @@
       <c r="A131" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-12-31</t>
+            <t xml:space="preserve">2011-03-31</t>
           </r>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.11944</t>
+            <t xml:space="preserve">98.59128</t>
           </r>
         </is>
       </c>
@@ -2235,14 +2235,14 @@
       <c r="A132" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-11-30</t>
+            <t xml:space="preserve">2011-02-28</t>
           </r>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.58652</t>
+            <t xml:space="preserve">97.85221</t>
           </r>
         </is>
       </c>
@@ -2251,14 +2251,14 @@
       <c r="A133" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-10-31</t>
+            <t xml:space="preserve">2011-01-31</t>
           </r>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.44898</t>
+            <t xml:space="preserve">97.29446</t>
           </r>
         </is>
       </c>
@@ -2267,14 +2267,14 @@
       <c r="A134" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-09-30</t>
+            <t xml:space="preserve">2010-12-31</t>
           </r>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.01161</t>
+            <t xml:space="preserve">97.12189</t>
           </r>
         </is>
       </c>
@@ -2283,14 +2283,14 @@
       <c r="A135" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-08-31</t>
+            <t xml:space="preserve">2010-11-30</t>
           </r>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.88717</t>
+            <t xml:space="preserve">98.58896</t>
           </r>
         </is>
       </c>
@@ -2299,14 +2299,14 @@
       <c r="A136" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-07-31</t>
+            <t xml:space="preserve">2010-10-31</t>
           </r>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.12387</t>
+            <t xml:space="preserve">99.45083</t>
           </r>
         </is>
       </c>
@@ -2315,14 +2315,14 @@
       <c r="A137" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-06-30</t>
+            <t xml:space="preserve">2010-09-30</t>
           </r>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.0312</t>
+            <t xml:space="preserve">98.01394</t>
           </r>
         </is>
       </c>
@@ -2331,14 +2331,14 @@
       <c r="A138" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-05-31</t>
+            <t xml:space="preserve">2010-08-31</t>
           </r>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.99546</t>
+            <t xml:space="preserve">97.88926</t>
           </r>
         </is>
       </c>
@@ -2347,14 +2347,14 @@
       <c r="A139" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-04-30</t>
+            <t xml:space="preserve">2010-07-31</t>
           </r>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.68736</t>
+            <t xml:space="preserve">98.12616</t>
           </r>
         </is>
       </c>
@@ -2363,14 +2363,14 @@
       <c r="A140" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-03-31</t>
+            <t xml:space="preserve">2010-06-30</t>
           </r>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.77044</t>
+            <t xml:space="preserve">97.03309</t>
           </r>
         </is>
       </c>
@@ -2379,14 +2379,14 @@
       <c r="A141" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-02-28</t>
+            <t xml:space="preserve">2010-05-31</t>
           </r>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.66997</t>
+            <t xml:space="preserve">97.99789</t>
           </r>
         </is>
       </c>
@@ -2395,14 +2395,14 @@
       <c r="A142" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-01-31</t>
+            <t xml:space="preserve">2010-04-30</t>
           </r>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.26168</t>
+            <t xml:space="preserve">99.68978</t>
           </r>
         </is>
       </c>
@@ -2411,14 +2411,14 @@
       <c r="A143" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-12-31</t>
+            <t xml:space="preserve">2010-03-31</t>
           </r>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.71216</t>
+            <t xml:space="preserve">100.77284</t>
           </r>
         </is>
       </c>
@@ -2427,14 +2427,14 @@
       <c r="A144" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-11-30</t>
+            <t xml:space="preserve">2010-02-28</t>
           </r>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.43554</t>
+            <t xml:space="preserve">101.67198</t>
           </r>
         </is>
       </c>
@@ -2443,14 +2443,14 @@
       <c r="A145" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-10-31</t>
+            <t xml:space="preserve">2010-01-31</t>
           </r>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.48412</t>
+            <t xml:space="preserve">103.26427</t>
           </r>
         </is>
       </c>
@@ -2459,14 +2459,14 @@
       <c r="A146" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-09-30</t>
+            <t xml:space="preserve">2009-12-31</t>
           </r>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.04176</t>
+            <t xml:space="preserve">103.7147</t>
           </r>
         </is>
       </c>
@@ -2475,14 +2475,14 @@
       <c r="A147" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-08-31</t>
+            <t xml:space="preserve">2009-11-30</t>
           </r>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.65802</t>
+            <t xml:space="preserve">104.43812</t>
           </r>
         </is>
       </c>
@@ -2491,14 +2491,14 @@
       <c r="A148" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-07-31</t>
+            <t xml:space="preserve">2009-10-31</t>
           </r>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.54752</t>
+            <t xml:space="preserve">104.48614</t>
           </r>
         </is>
       </c>
@@ -2507,14 +2507,14 @@
       <c r="A149" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-06-30</t>
+            <t xml:space="preserve">2009-09-30</t>
           </r>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.86757</t>
+            <t xml:space="preserve">104.04449</t>
           </r>
         </is>
       </c>
@@ -2523,14 +2523,14 @@
       <c r="A150" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-05-31</t>
+            <t xml:space="preserve">2009-08-31</t>
           </r>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.09789</t>
+            <t xml:space="preserve">103.66072</t>
           </r>
         </is>
       </c>
@@ -2539,14 +2539,14 @@
       <c r="A151" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-04-30</t>
+            <t xml:space="preserve">2009-07-31</t>
           </r>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.6149</t>
+            <t xml:space="preserve">103.5492</t>
           </r>
         </is>
       </c>
@@ -2555,14 +2555,14 @@
       <c r="A152" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-03-31</t>
+            <t xml:space="preserve">2009-06-30</t>
           </r>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.28285</t>
+            <t xml:space="preserve">103.8697</t>
           </r>
         </is>
       </c>
@@ -2571,14 +2571,14 @@
       <c r="A153" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-02-28</t>
+            <t xml:space="preserve">2009-05-31</t>
           </r>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.38946</t>
+            <t xml:space="preserve">103.10031</t>
           </r>
         </is>
       </c>
@@ -2587,14 +2587,14 @@
       <c r="A154" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-01-31</t>
+            <t xml:space="preserve">2009-04-30</t>
           </r>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.05035</t>
+            <t xml:space="preserve">102.61743</t>
           </r>
         </is>
       </c>
@@ -2603,14 +2603,14 @@
       <c r="A155" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-12-31</t>
+            <t xml:space="preserve">2009-03-31</t>
           </r>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.88037</t>
+            <t xml:space="preserve">103.28528</t>
           </r>
         </is>
       </c>
@@ -2619,14 +2619,14 @@
       <c r="A156" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-11-30</t>
+            <t xml:space="preserve">2009-02-28</t>
           </r>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.9926</t>
+            <t xml:space="preserve">102.392</t>
           </r>
         </is>
       </c>
@@ -2635,14 +2635,14 @@
       <c r="A157" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-10-31</t>
+            <t xml:space="preserve">2009-01-31</t>
           </r>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.80719</t>
+            <t xml:space="preserve">103.05244</t>
           </r>
         </is>
       </c>
@@ -2651,14 +2651,14 @@
       <c r="A158" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-09-30</t>
+            <t xml:space="preserve">2008-12-31</t>
           </r>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.01386</t>
+            <t xml:space="preserve">102.8826</t>
           </r>
         </is>
       </c>
@@ -2667,14 +2667,14 @@
       <c r="A159" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-08-31</t>
+            <t xml:space="preserve">2008-11-30</t>
           </r>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.62763</t>
+            <t xml:space="preserve">99.9945</t>
           </r>
         </is>
       </c>
@@ -2683,14 +2683,14 @@
       <c r="A160" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-07-31</t>
+            <t xml:space="preserve">2008-10-31</t>
           </r>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.28023</t>
+            <t xml:space="preserve">100.81</t>
           </r>
         </is>
       </c>
@@ -2699,14 +2699,14 @@
       <c r="A161" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-06-30</t>
+            <t xml:space="preserve">2008-09-30</t>
           </r>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.24298</t>
+            <t xml:space="preserve">103.01708</t>
           </r>
         </is>
       </c>
@@ -2715,14 +2715,14 @@
       <c r="A162" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-05-31</t>
+            <t xml:space="preserve">2008-08-31</t>
           </r>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.67098</t>
+            <t xml:space="preserve">103.63002</t>
           </r>
         </is>
       </c>
@@ -2731,14 +2731,14 @@
       <c r="A163" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-04-30</t>
+            <t xml:space="preserve">2008-07-31</t>
           </r>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">106.12796</t>
+            <t xml:space="preserve">105.28175</t>
           </r>
         </is>
       </c>
@@ -2747,14 +2747,14 @@
       <c r="A164" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-03-31</t>
+            <t xml:space="preserve">2008-06-30</t>
           </r>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">106.13909</t>
+            <t xml:space="preserve">105.24512</t>
           </r>
         </is>
       </c>
@@ -2763,14 +2763,14 @@
       <c r="A165" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-02-29</t>
+            <t xml:space="preserve">2008-05-31</t>
           </r>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.91371</t>
+            <t xml:space="preserve">105.67357</t>
           </r>
         </is>
       </c>
@@ -2779,14 +2779,14 @@
       <c r="A166" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-01-31</t>
+            <t xml:space="preserve">2008-04-30</t>
           </r>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.06116</t>
+            <t xml:space="preserve">106.13047</t>
           </r>
         </is>
       </c>
@@ -2795,14 +2795,14 @@
       <c r="A167" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-12-31</t>
+            <t xml:space="preserve">2008-03-31</t>
           </r>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.21416</t>
+            <t xml:space="preserve">106.14146</t>
           </r>
         </is>
       </c>
@@ -2811,14 +2811,14 @@
       <c r="A168" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-11-30</t>
+            <t xml:space="preserve">2008-02-29</t>
           </r>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.68914</t>
+            <t xml:space="preserve">104.91575</t>
           </r>
         </is>
       </c>
@@ -2827,14 +2827,14 @@
       <c r="A169" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-10-31</t>
+            <t xml:space="preserve">2008-01-31</t>
           </r>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.77745</t>
+            <t xml:space="preserve">105.06399</t>
           </r>
         </is>
       </c>
@@ -2843,14 +2843,14 @@
       <c r="A170" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-09-30</t>
+            <t xml:space="preserve">2007-12-31</t>
           </r>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.51301</t>
+            <t xml:space="preserve">105.21646</t>
           </r>
         </is>
       </c>
@@ -2859,14 +2859,14 @@
       <c r="A171" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-08-31</t>
+            <t xml:space="preserve">2007-11-30</t>
           </r>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.68788</t>
+            <t xml:space="preserve">105.69162</t>
           </r>
         </is>
       </c>
@@ -2875,14 +2875,14 @@
       <c r="A172" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-07-31</t>
+            <t xml:space="preserve">2007-10-31</t>
           </r>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.67311</t>
+            <t xml:space="preserve">104.77988</t>
           </r>
         </is>
       </c>
@@ -2891,14 +2891,14 @@
       <c r="A173" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-06-30</t>
+            <t xml:space="preserve">2007-09-30</t>
           </r>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.33281</t>
+            <t xml:space="preserve">104.51576</t>
           </r>
         </is>
       </c>
@@ -2907,14 +2907,14 @@
       <c r="A174" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-05-31</t>
+            <t xml:space="preserve">2007-08-31</t>
           </r>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.48017</t>
+            <t xml:space="preserve">103.69023</t>
           </r>
         </is>
       </c>
@@ -2923,14 +2923,14 @@
       <c r="A175" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-04-30</t>
+            <t xml:space="preserve">2007-07-31</t>
           </r>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.86259</t>
+            <t xml:space="preserve">103.67514</t>
           </r>
         </is>
       </c>
@@ -2939,14 +2939,14 @@
       <c r="A176" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-03-31</t>
+            <t xml:space="preserve">2007-06-30</t>
           </r>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.21823</t>
+            <t xml:space="preserve">103.33512</t>
           </r>
         </is>
       </c>
@@ -2955,14 +2955,14 @@
       <c r="A177" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-02-28</t>
+            <t xml:space="preserve">2007-05-31</t>
           </r>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.06868</t>
+            <t xml:space="preserve">103.48262</t>
           </r>
         </is>
       </c>
@@ -2971,14 +2971,14 @@
       <c r="A178" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-01-31</t>
+            <t xml:space="preserve">2007-04-30</t>
           </r>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.72354</t>
+            <t xml:space="preserve">103.86493</t>
           </r>
         </is>
       </c>
@@ -2987,14 +2987,14 @@
       <c r="A179" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-12-31</t>
+            <t xml:space="preserve">2007-03-31</t>
           </r>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.73126</t>
+            <t xml:space="preserve">103.22005</t>
           </r>
         </is>
       </c>
@@ -3003,14 +3003,14 @@
       <c r="A180" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-11-30</t>
+            <t xml:space="preserve">2007-02-28</t>
           </r>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.24379</t>
+            <t xml:space="preserve">103.07168</t>
           </r>
         </is>
       </c>
@@ -3019,14 +3019,14 @@
       <c r="A181" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-10-31</t>
+            <t xml:space="preserve">2007-01-31</t>
           </r>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.90525</t>
+            <t xml:space="preserve">102.72579</t>
           </r>
         </is>
       </c>
@@ -3035,14 +3035,14 @@
       <c r="A182" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-09-30</t>
+            <t xml:space="preserve">2006-12-31</t>
           </r>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.52149</t>
+            <t xml:space="preserve">102.73347</t>
           </r>
         </is>
       </c>
@@ -3051,14 +3051,14 @@
       <c r="A183" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-08-31</t>
+            <t xml:space="preserve">2006-11-30</t>
           </r>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.14759</t>
+            <t xml:space="preserve">102.24617</t>
           </r>
         </is>
       </c>
@@ -3067,14 +3067,14 @@
       <c r="A184" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-07-31</t>
+            <t xml:space="preserve">2006-10-31</t>
           </r>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.44647</t>
+            <t xml:space="preserve">101.90767</t>
           </r>
         </is>
       </c>
@@ -3083,14 +3083,14 @@
       <c r="A185" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-06-30</t>
+            <t xml:space="preserve">2006-09-30</t>
           </r>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.36346</t>
+            <t xml:space="preserve">102.52395</t>
           </r>
         </is>
       </c>
@@ -3099,14 +3099,14 @@
       <c r="A186" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-05-31</t>
+            <t xml:space="preserve">2006-08-31</t>
           </r>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.45167</t>
+            <t xml:space="preserve">103.14998</t>
           </r>
         </is>
       </c>
@@ -3115,14 +3115,14 @@
       <c r="A187" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-04-30</t>
+            <t xml:space="preserve">2006-07-31</t>
           </r>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.43603</t>
+            <t xml:space="preserve">103.44868</t>
           </r>
         </is>
       </c>
@@ -3131,14 +3131,14 @@
       <c r="A188" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-03-31</t>
+            <t xml:space="preserve">2006-06-30</t>
           </r>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.23894</t>
+            <t xml:space="preserve">103.36584</t>
           </r>
         </is>
       </c>
@@ -3147,14 +3147,14 @@
       <c r="A189" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-02-28</t>
+            <t xml:space="preserve">2006-05-31</t>
           </r>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.72587</t>
+            <t xml:space="preserve">103.45407</t>
           </r>
         </is>
       </c>
@@ -3163,14 +3163,14 @@
       <c r="A190" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-01-31</t>
+            <t xml:space="preserve">2006-04-30</t>
           </r>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.91417</t>
+            <t xml:space="preserve">102.43831</t>
           </r>
         </is>
       </c>
@@ -3179,14 +3179,14 @@
       <c r="A191" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-12-31</t>
+            <t xml:space="preserve">2006-03-31</t>
           </r>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.63463</t>
+            <t xml:space="preserve">102.24122</t>
           </r>
         </is>
       </c>
@@ -3195,14 +3195,14 @@
       <c r="A192" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-11-30</t>
+            <t xml:space="preserve">2006-02-28</t>
           </r>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.4693</t>
+            <t xml:space="preserve">101.72832</t>
           </r>
         </is>
       </c>
@@ -3211,14 +3211,14 @@
       <c r="A193" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-10-31</t>
+            <t xml:space="preserve">2006-01-31</t>
           </r>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.7494</t>
+            <t xml:space="preserve">101.91643</t>
           </r>
         </is>
       </c>
@@ -3227,14 +3227,14 @@
       <c r="A194" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-09-30</t>
+            <t xml:space="preserve">2005-12-31</t>
           </r>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.30964</t>
+            <t xml:space="preserve">100.63692</t>
           </r>
         </is>
       </c>
@@ -3243,14 +3243,14 @@
       <c r="A195" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-08-31</t>
+            <t xml:space="preserve">2005-11-30</t>
           </r>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.06429</t>
+            <t xml:space="preserve">100.47161</t>
           </r>
         </is>
       </c>
@@ -3259,14 +3259,14 @@
       <c r="A196" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-07-31</t>
+            <t xml:space="preserve">2005-10-31</t>
           </r>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.71796</t>
+            <t xml:space="preserve">100.7517</t>
           </r>
         </is>
       </c>
@@ -3275,14 +3275,14 @@
       <c r="A197" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-06-30</t>
+            <t xml:space="preserve">2005-09-30</t>
           </r>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.02124</t>
+            <t xml:space="preserve">101.31194</t>
           </r>
         </is>
       </c>
@@ -3291,14 +3291,14 @@
       <c r="A198" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-05-31</t>
+            <t xml:space="preserve">2005-08-31</t>
           </r>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.21802</t>
+            <t xml:space="preserve">102.06674</t>
           </r>
         </is>
       </c>
@@ -3307,14 +3307,14 @@
       <c r="A199" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-04-30</t>
+            <t xml:space="preserve">2005-07-31</t>
           </r>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.06204</t>
+            <t xml:space="preserve">101.72019</t>
           </r>
         </is>
       </c>
@@ -3323,14 +3323,14 @@
       <c r="A200" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-03-31</t>
+            <t xml:space="preserve">2005-06-30</t>
           </r>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.89256</t>
+            <t xml:space="preserve">102.02352</t>
           </r>
         </is>
       </c>
@@ -3339,14 +3339,14 @@
       <c r="A201" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-02-28</t>
+            <t xml:space="preserve">2005-05-31</t>
           </r>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.70435</t>
+            <t xml:space="preserve">103.22048</t>
           </r>
         </is>
       </c>
@@ -3355,14 +3355,14 @@
       <c r="A202" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-01-31</t>
+            <t xml:space="preserve">2005-04-30</t>
           </r>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.34536</t>
+            <t xml:space="preserve">104.06438</t>
           </r>
         </is>
       </c>
@@ -3371,14 +3371,14 @@
       <c r="A203" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-12-31</t>
+            <t xml:space="preserve">2005-03-31</t>
           </r>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.97145</t>
+            <t xml:space="preserve">104.89491</t>
           </r>
         </is>
       </c>
@@ -3387,14 +3387,14 @@
       <c r="A204" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-11-30</t>
+            <t xml:space="preserve">2005-02-28</t>
           </r>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.19143</t>
+            <t xml:space="preserve">104.70666</t>
           </r>
         </is>
       </c>
@@ -3403,14 +3403,14 @@
       <c r="A205" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-10-31</t>
+            <t xml:space="preserve">2005-01-31</t>
           </r>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.45558</t>
+            <t xml:space="preserve">105.3479</t>
           </r>
         </is>
       </c>
@@ -3419,14 +3419,14 @@
       <c r="A206" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-09-30</t>
+            <t xml:space="preserve">2004-12-31</t>
           </r>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.23387</t>
+            <t xml:space="preserve">105.97388</t>
           </r>
         </is>
       </c>
@@ -3435,14 +3435,14 @@
       <c r="A207" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-08-31</t>
+            <t xml:space="preserve">2004-11-30</t>
           </r>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.20535</t>
+            <t xml:space="preserve">105.1939</t>
           </r>
         </is>
       </c>
@@ -3451,14 +3451,14 @@
       <c r="A208" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-07-31</t>
+            <t xml:space="preserve">2004-10-31</t>
           </r>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.4087</t>
+            <t xml:space="preserve">104.45798</t>
           </r>
         </is>
       </c>
@@ -3467,14 +3467,14 @@
       <c r="A209" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-06-30</t>
+            <t xml:space="preserve">2004-09-30</t>
           </r>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.35722</t>
+            <t xml:space="preserve">104.23634</t>
           </r>
         </is>
       </c>
@@ -3483,14 +3483,14 @@
       <c r="A210" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-05-31</t>
+            <t xml:space="preserve">2004-08-31</t>
           </r>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.23048</t>
+            <t xml:space="preserve">104.2078</t>
           </r>
         </is>
       </c>
@@ -3499,14 +3499,14 @@
       <c r="A211" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-04-30</t>
+            <t xml:space="preserve">2004-07-31</t>
           </r>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.53109</t>
+            <t xml:space="preserve">104.41107</t>
           </r>
         </is>
       </c>
@@ -3515,14 +3515,14 @@
       <c r="A212" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-03-31</t>
+            <t xml:space="preserve">2004-06-30</t>
           </r>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.43149</t>
+            <t xml:space="preserve">104.35973</t>
           </r>
         </is>
       </c>
@@ -3531,14 +3531,14 @@
       <c r="A213" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-02-29</t>
+            <t xml:space="preserve">2004-05-31</t>
           </r>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.381</t>
+            <t xml:space="preserve">104.23296</t>
           </r>
         </is>
       </c>
@@ -3547,14 +3547,14 @@
       <c r="A214" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-01-31</t>
+            <t xml:space="preserve">2004-04-30</t>
           </r>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.44314</t>
+            <t xml:space="preserve">103.53323</t>
           </r>
         </is>
       </c>
@@ -3563,14 +3563,14 @@
       <c r="A215" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-12-31</t>
+            <t xml:space="preserve">2004-03-31</t>
           </r>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.88994</t>
+            <t xml:space="preserve">104.4339</t>
           </r>
         </is>
       </c>
@@ -3579,14 +3579,14 @@
       <c r="A216" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-11-30</t>
+            <t xml:space="preserve">2004-02-29</t>
           </r>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.4801</t>
+            <t xml:space="preserve">105.3836</t>
           </r>
         </is>
       </c>
@@ -3595,14 +3595,14 @@
       <c r="A217" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-10-31</t>
+            <t xml:space="preserve">2004-01-31</t>
           </r>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.58144</t>
+            <t xml:space="preserve">105.44537</t>
           </r>
         </is>
       </c>
@@ -3611,14 +3611,14 @@
       <c r="A218" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-09-30</t>
+            <t xml:space="preserve">2003-12-31</t>
           </r>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.47423</t>
+            <t xml:space="preserve">104.89243</t>
           </r>
         </is>
       </c>
@@ -3627,14 +3627,14 @@
       <c r="A219" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-08-31</t>
+            <t xml:space="preserve">2003-11-30</t>
           </r>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.62467</t>
+            <t xml:space="preserve">103.48244</t>
           </r>
         </is>
       </c>
@@ -3643,14 +3643,14 @@
       <c r="A220" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-07-31</t>
+            <t xml:space="preserve">2003-10-31</t>
           </r>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.36216</t>
+            <t xml:space="preserve">103.5837</t>
           </r>
         </is>
       </c>
@@ -3659,14 +3659,14 @@
       <c r="A221" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-06-30</t>
+            <t xml:space="preserve">2003-09-30</t>
           </r>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.97389</t>
+            <t xml:space="preserve">102.47635</t>
           </r>
         </is>
       </c>
@@ -3675,14 +3675,14 @@
       <c r="A222" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-05-31</t>
+            <t xml:space="preserve">2003-08-31</t>
           </r>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.83192</t>
+            <t xml:space="preserve">102.62686</t>
           </r>
         </is>
       </c>
@@ -3691,14 +3691,14 @@
       <c r="A223" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-04-30</t>
+            <t xml:space="preserve">2003-07-31</t>
           </r>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.75744</t>
+            <t xml:space="preserve">103.36479</t>
           </r>
         </is>
       </c>
@@ -3707,14 +3707,14 @@
       <c r="A224" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-03-31</t>
+            <t xml:space="preserve">2003-06-30</t>
           </r>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.43594</t>
+            <t xml:space="preserve">103.97655</t>
           </r>
         </is>
       </c>
@@ -3723,14 +3723,14 @@
       <c r="A225" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-02-28</t>
+            <t xml:space="preserve">2003-05-31</t>
           </r>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.45645</t>
+            <t xml:space="preserve">103.83437</t>
           </r>
         </is>
       </c>
@@ -3739,14 +3739,14 @@
       <c r="A226" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-01-31</t>
+            <t xml:space="preserve">2003-04-30</t>
           </r>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.15209</t>
+            <t xml:space="preserve">101.75934</t>
           </r>
         </is>
       </c>
@@ -3755,14 +3755,14 @@
       <c r="A227" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-12-31</t>
+            <t xml:space="preserve">2003-03-31</t>
           </r>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.70424</t>
+            <t xml:space="preserve">101.43822</t>
           </r>
         </is>
       </c>
@@ -3771,14 +3771,14 @@
       <c r="A228" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-11-30</t>
+            <t xml:space="preserve">2003-02-28</t>
           </r>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.22474</t>
+            <t xml:space="preserve">101.45877</t>
           </r>
         </is>
       </c>
@@ -3787,14 +3787,14 @@
       <c r="A229" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-10-31</t>
+            <t xml:space="preserve">2003-01-31</t>
           </r>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.74289</t>
+            <t xml:space="preserve">101.15443</t>
           </r>
         </is>
       </c>
@@ -3803,14 +3803,14 @@
       <c r="A230" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-09-30</t>
+            <t xml:space="preserve">2002-12-31</t>
           </r>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.6219</t>
+            <t xml:space="preserve">99.70646</t>
           </r>
         </is>
       </c>
@@ -3819,14 +3819,14 @@
       <c r="A231" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-08-31</t>
+            <t xml:space="preserve">2002-11-30</t>
           </r>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.71708</t>
+            <t xml:space="preserve">99.22697</t>
           </r>
         </is>
       </c>
@@ -3835,14 +3835,14 @@
       <c r="A232" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-07-31</t>
+            <t xml:space="preserve">2002-10-31</t>
           </r>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.96879</t>
+            <t xml:space="preserve">98.74512</t>
           </r>
         </is>
       </c>
@@ -3851,14 +3851,14 @@
       <c r="A233" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-06-30</t>
+            <t xml:space="preserve">2002-09-30</t>
           </r>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.7162</t>
+            <t xml:space="preserve">98.62428</t>
           </r>
         </is>
       </c>
@@ -3867,14 +3867,14 @@
       <c r="A234" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-05-31</t>
+            <t xml:space="preserve">2002-08-31</t>
           </r>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.27915</t>
+            <t xml:space="preserve">98.71936</t>
           </r>
         </is>
       </c>
@@ -3883,14 +3883,14 @@
       <c r="A235" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-04-30</t>
+            <t xml:space="preserve">2002-07-31</t>
           </r>
         </is>
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.11337</t>
+            <t xml:space="preserve">98.971</t>
           </r>
         </is>
       </c>
@@ -3899,14 +3899,14 @@
       <c r="A236" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-03-31</t>
+            <t xml:space="preserve">2002-06-30</t>
           </r>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.18374</t>
+            <t xml:space="preserve">97.71835</t>
           </r>
         </is>
       </c>
@@ -3915,14 +3915,14 @@
       <c r="A237" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-02-28</t>
+            <t xml:space="preserve">2002-05-31</t>
           </r>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.2192</t>
+            <t xml:space="preserve">96.2813</t>
           </r>
         </is>
       </c>
@@ -3931,14 +3931,14 @@
       <c r="A238" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-01-31</t>
+            <t xml:space="preserve">2002-04-30</t>
           </r>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.68798</t>
+            <t xml:space="preserve">95.11553</t>
           </r>
         </is>
       </c>
@@ -3947,14 +3947,14 @@
       <c r="A239" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-12-31</t>
+            <t xml:space="preserve">2002-03-31</t>
           </r>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.40557</t>
+            <t xml:space="preserve">95.18557</t>
           </r>
         </is>
       </c>
@@ -3963,14 +3963,14 @@
       <c r="A240" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-11-30</t>
+            <t xml:space="preserve">2002-02-28</t>
           </r>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.16286</t>
+            <t xml:space="preserve">95.22127</t>
           </r>
         </is>
       </c>
@@ -3979,14 +3979,14 @@
       <c r="A241" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-10-31</t>
+            <t xml:space="preserve">2002-01-31</t>
           </r>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.80115</t>
+            <t xml:space="preserve">95.69059</t>
           </r>
         </is>
       </c>
@@ -3995,14 +3995,14 @@
       <c r="A242" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-09-30</t>
+            <t xml:space="preserve">2001-12-31</t>
           </r>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.62626</t>
+            <t xml:space="preserve">95.40842</t>
           </r>
         </is>
       </c>
@@ -4011,14 +4011,14 @@
       <c r="A243" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-08-31</t>
+            <t xml:space="preserve">2001-11-30</t>
           </r>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.43341</t>
+            <t xml:space="preserve">95.16461</t>
           </r>
         </is>
       </c>
@@ -4027,14 +4027,14 @@
       <c r="A244" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-07-31</t>
+            <t xml:space="preserve">2001-10-31</t>
           </r>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.86418</t>
+            <t xml:space="preserve">95.80313</t>
           </r>
         </is>
       </c>
@@ -4043,14 +4043,14 @@
       <c r="A245" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-06-30</t>
+            <t xml:space="preserve">2001-09-30</t>
           </r>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.27726</t>
+            <t xml:space="preserve">95.6285</t>
           </r>
         </is>
       </c>
@@ -4059,14 +4059,14 @@
       <c r="A246" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-05-31</t>
+            <t xml:space="preserve">2001-08-31</t>
           </r>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.82237</t>
+            <t xml:space="preserve">95.43569</t>
           </r>
         </is>
       </c>
@@ -4075,14 +4075,14 @@
       <c r="A247" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-04-30</t>
+            <t xml:space="preserve">2001-07-31</t>
           </r>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">94.96076</t>
+            <t xml:space="preserve">93.86618</t>
           </r>
         </is>
       </c>
@@ -4091,14 +4091,14 @@
       <c r="A248" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-03-31</t>
+            <t xml:space="preserve">2001-06-30</t>
           </r>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.19847</t>
+            <t xml:space="preserve">93.27946</t>
           </r>
         </is>
       </c>
@@ -4107,14 +4107,14 @@
       <c r="A249" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-02-28</t>
+            <t xml:space="preserve">2001-05-31</t>
           </r>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.35656</t>
+            <t xml:space="preserve">93.82455</t>
           </r>
         </is>
       </c>
@@ -4123,14 +4123,14 @@
       <c r="A250" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-01-31</t>
+            <t xml:space="preserve">2001-04-30</t>
           </r>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.92824</t>
+            <t xml:space="preserve">94.96284</t>
           </r>
         </is>
       </c>
@@ -4139,14 +4139,14 @@
       <c r="A251" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-12-31</t>
+            <t xml:space="preserve">2001-03-31</t>
           </r>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.60536</t>
+            <t xml:space="preserve">95.20075</t>
           </r>
         </is>
       </c>
@@ -4155,14 +4155,14 @@
       <c r="A252" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-11-30</t>
+            <t xml:space="preserve">2001-02-28</t>
           </r>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">91.80485</t>
+            <t xml:space="preserve">95.35883</t>
           </r>
         </is>
       </c>
@@ -4171,14 +4171,14 @@
       <c r="A253" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-10-31</t>
+            <t xml:space="preserve">2001-01-31</t>
           </r>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">91.66736</t>
+            <t xml:space="preserve">95.93018</t>
           </r>
         </is>
       </c>
@@ -4187,14 +4187,14 @@
       <c r="A254" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-09-30</t>
+            <t xml:space="preserve">2000-12-31</t>
           </r>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">92.358</t>
+            <t xml:space="preserve">93.60752</t>
           </r>
         </is>
       </c>
@@ -4203,14 +4203,14 @@
       <c r="A255" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-08-31</t>
+            <t xml:space="preserve">2000-11-30</t>
           </r>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.42928</t>
+            <t xml:space="preserve">91.80685</t>
           </r>
         </is>
       </c>
@@ -4219,14 +4219,14 @@
       <c r="A256" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-07-31</t>
+            <t xml:space="preserve">2000-10-31</t>
           </r>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">94.82953</t>
+            <t xml:space="preserve">91.66953</t>
           </r>
         </is>
       </c>
@@ -4235,14 +4235,14 @@
       <c r="A257" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-06-30</t>
+            <t xml:space="preserve">2000-09-30</t>
           </r>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.34845</t>
+            <t xml:space="preserve">92.36017</t>
           </r>
         </is>
       </c>
@@ -4251,14 +4251,14 @@
       <c r="A258" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-05-31</t>
+            <t xml:space="preserve">2000-08-31</t>
           </r>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.75849</t>
+            <t xml:space="preserve">93.43152</t>
           </r>
         </is>
       </c>
@@ -4267,14 +4267,14 @@
       <c r="A259" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-04-30</t>
+            <t xml:space="preserve">2000-07-31</t>
           </r>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">94.69228</t>
+            <t xml:space="preserve">94.83192</t>
           </r>
         </is>
       </c>
@@ -4283,14 +4283,14 @@
       <c r="A260" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-03-31</t>
+            <t xml:space="preserve">2000-06-30</t>
           </r>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.49387</t>
+            <t xml:space="preserve">95.35063</t>
           </r>
         </is>
       </c>
@@ -4299,14 +4299,14 @@
       <c r="A261" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-02-29</t>
+            <t xml:space="preserve">2000-05-31</t>
           </r>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.26186</t>
+            <t xml:space="preserve">93.76051</t>
           </r>
         </is>
       </c>
@@ -4315,14 +4315,14 @@
       <c r="A262" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-01-31</t>
+            <t xml:space="preserve">2000-04-30</t>
           </r>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.22439</t>
+            <t xml:space="preserve">94.69434</t>
           </r>
         </is>
       </c>
@@ -4331,14 +4331,14 @@
       <c r="A263" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-12-31</t>
+            <t xml:space="preserve">2000-03-31</t>
           </r>
         </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.68131</t>
+            <t xml:space="preserve">95.49623</t>
           </r>
         </is>
       </c>
@@ -4347,14 +4347,14 @@
       <c r="A264" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-11-30</t>
+            <t xml:space="preserve">2000-02-29</t>
           </r>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.93702</t>
+            <t xml:space="preserve">96.26399</t>
           </r>
         </is>
       </c>
@@ -4363,14 +4363,14 @@
       <c r="A265" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-10-31</t>
+            <t xml:space="preserve">2000-01-31</t>
           </r>
         </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.43259</t>
+            <t xml:space="preserve">97.22691</t>
           </r>
         </is>
       </c>
@@ -4379,14 +4379,14 @@
       <c r="A266" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-09-30</t>
+            <t xml:space="preserve">1999-12-31</t>
           </r>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.75897</t>
+            <t xml:space="preserve">96.68602</t>
           </r>
         </is>
       </c>
@@ -4395,14 +4395,14 @@
       <c r="A267" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-08-31</t>
+            <t xml:space="preserve">1999-11-30</t>
           </r>
         </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.61357</t>
+            <t xml:space="preserve">97.93332</t>
           </r>
         </is>
       </c>
@@ -4411,14 +4411,14 @@
       <c r="A268" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-07-31</t>
+            <t xml:space="preserve">1999-10-31</t>
           </r>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.09802</t>
+            <t xml:space="preserve">99.43036</t>
           </r>
         </is>
       </c>
@@ -4427,14 +4427,14 @@
       <c r="A269" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-06-30</t>
+            <t xml:space="preserve">1999-09-30</t>
           </r>
         </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.20631</t>
+            <t xml:space="preserve">98.7626</t>
           </r>
         </is>
       </c>
@@ -4443,14 +4443,14 @@
       <c r="A270" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-05-31</t>
+            <t xml:space="preserve">1999-08-31</t>
           </r>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.14308</t>
+            <t xml:space="preserve">99.62193</t>
           </r>
         </is>
       </c>
@@ -4459,14 +4459,14 @@
       <c r="A271" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-04-30</t>
+            <t xml:space="preserve">1999-07-31</t>
           </r>
         </is>
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.67713</t>
+            <t xml:space="preserve">99.09789</t>
           </r>
         </is>
       </c>
@@ -4475,14 +4475,14 @@
       <c r="A272" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-03-31</t>
+            <t xml:space="preserve">1999-06-30</t>
           </r>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.83266</t>
+            <t xml:space="preserve">99.21335</t>
           </r>
         </is>
       </c>
@@ -4491,14 +4491,14 @@
       <c r="A273" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-02-28</t>
+            <t xml:space="preserve">1999-05-31</t>
           </r>
         </is>
       </c>
       <c r="B273" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.87447</t>
+            <t xml:space="preserve">100.13915</t>
           </r>
         </is>
       </c>
@@ -4507,14 +4507,14 @@
       <c r="A274" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-01-31</t>
+            <t xml:space="preserve">1999-04-30</t>
           </r>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.74487</t>
+            <t xml:space="preserve">100.67338</t>
           </r>
         </is>
       </c>
@@ -4523,14 +4523,14 @@
       <c r="A275" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-12-31</t>
+            <t xml:space="preserve">1999-03-31</t>
           </r>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.47326</t>
+            <t xml:space="preserve">101.83006</t>
           </r>
         </is>
       </c>
@@ -4539,14 +4539,14 @@
       <c r="A276" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-11-30</t>
+            <t xml:space="preserve">1999-02-28</t>
           </r>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.01142</t>
+            <t xml:space="preserve">102.87178</t>
           </r>
         </is>
       </c>
@@ -4555,14 +4555,14 @@
       <c r="A277" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-10-31</t>
+            <t xml:space="preserve">1999-01-31</t>
           </r>
         </is>
       </c>
       <c r="B277" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.02486</t>
+            <t xml:space="preserve">103.74017</t>
           </r>
         </is>
       </c>
@@ -4571,14 +4571,14 @@
       <c r="A278" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-09-30</t>
+            <t xml:space="preserve">1998-12-31</t>
           </r>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">103.69574</t>
+            <t xml:space="preserve">103.471</t>
           </r>
         </is>
       </c>
@@ -4587,14 +4587,14 @@
       <c r="A279" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-08-31</t>
+            <t xml:space="preserve">1998-11-30</t>
           </r>
         </is>
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.50209</t>
+            <t xml:space="preserve">103.00769</t>
           </r>
         </is>
       </c>
@@ -4603,14 +4603,14 @@
       <c r="A280" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-07-31</t>
+            <t xml:space="preserve">1998-10-31</t>
           </r>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.92771</t>
+            <t xml:space="preserve">104.0324</t>
           </r>
         </is>
       </c>
@@ -4619,14 +4619,14 @@
       <c r="A281" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-06-30</t>
+            <t xml:space="preserve">1998-09-30</t>
           </r>
         </is>
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.07993</t>
+            <t xml:space="preserve">103.70036</t>
           </r>
         </is>
       </c>
@@ -4635,14 +4635,14 @@
       <c r="A282" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-05-31</t>
+            <t xml:space="preserve">1998-08-31</t>
           </r>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.78101</t>
+            <t xml:space="preserve">101.5046</t>
           </r>
         </is>
       </c>
@@ -4651,14 +4651,14 @@
       <c r="A283" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-04-30</t>
+            <t xml:space="preserve">1998-07-31</t>
           </r>
         </is>
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.35305</t>
+            <t xml:space="preserve">100.92723</t>
           </r>
         </is>
       </c>
@@ -4667,14 +4667,14 @@
       <c r="A284" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-03-31</t>
+            <t xml:space="preserve">1998-06-30</t>
           </r>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.41744</t>
+            <t xml:space="preserve">101.08018</t>
           </r>
         </is>
       </c>
@@ -4683,14 +4683,14 @@
       <c r="A285" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-02-28</t>
+            <t xml:space="preserve">1998-05-31</t>
           </r>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.40494</t>
+            <t xml:space="preserve">100.77927</t>
           </r>
         </is>
       </c>
@@ -4699,14 +4699,14 @@
       <c r="A286" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-01-31</t>
+            <t xml:space="preserve">1998-04-30</t>
           </r>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.89003</t>
+            <t xml:space="preserve">99.34954</t>
           </r>
         </is>
       </c>
@@ -4715,14 +4715,14 @@
       <c r="A287" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-12-31</t>
+            <t xml:space="preserve">1998-03-31</t>
           </r>
         </is>
       </c>
       <c r="B287" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.88046</t>
+            <t xml:space="preserve">99.4164</t>
           </r>
         </is>
       </c>
@@ -4731,14 +4731,14 @@
       <c r="A288" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-11-30</t>
+            <t xml:space="preserve">1998-02-28</t>
           </r>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.82669</t>
+            <t xml:space="preserve">99.40302</t>
           </r>
         </is>
       </c>
@@ -4747,14 +4747,14 @@
       <c r="A289" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-10-31</t>
+            <t xml:space="preserve">1998-01-31</t>
           </r>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.00843</t>
+            <t xml:space="preserve">99.88933</t>
           </r>
         </is>
       </c>
@@ -4763,14 +4763,14 @@
       <c r="A290" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-09-30</t>
+            <t xml:space="preserve">1997-12-31</t>
           </r>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.58162</t>
+            <t xml:space="preserve">99.88334</t>
           </r>
         </is>
       </c>
@@ -4779,14 +4779,14 @@
       <c r="A291" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-08-31</t>
+            <t xml:space="preserve">1997-11-30</t>
           </r>
         </is>
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.09948</t>
+            <t xml:space="preserve">99.82792</t>
           </r>
         </is>
       </c>
@@ -4795,14 +4795,14 @@
       <c r="A292" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-07-31</t>
+            <t xml:space="preserve">1997-10-31</t>
           </r>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.05066</t>
+            <t xml:space="preserve">99.01164</t>
           </r>
         </is>
       </c>
@@ -4811,14 +4811,14 @@
       <c r="A293" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-06-30</t>
+            <t xml:space="preserve">1997-09-30</t>
           </r>
         </is>
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.65141</t>
+            <t xml:space="preserve">98.58583</t>
           </r>
         </is>
       </c>
@@ -4827,14 +4827,14 @@
       <c r="A294" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-05-31</t>
+            <t xml:space="preserve">1997-08-31</t>
           </r>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.6249</t>
+            <t xml:space="preserve">97.10702</t>
           </r>
         </is>
       </c>
@@ -4843,14 +4843,14 @@
       <c r="A295" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-04-30</t>
+            <t xml:space="preserve">1997-07-31</t>
           </r>
         </is>
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.4619</t>
+            <t xml:space="preserve">98.04848</t>
           </r>
         </is>
       </c>
@@ -4859,14 +4859,14 @@
       <c r="A296" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-03-31</t>
+            <t xml:space="preserve">1997-06-30</t>
           </r>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.00601</t>
+            <t xml:space="preserve">98.65113</t>
           </r>
         </is>
       </c>
@@ -4875,14 +4875,14 @@
       <c r="A297" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-02-28</t>
+            <t xml:space="preserve">1997-05-31</t>
           </r>
         </is>
       </c>
       <c r="B297" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.56728</t>
+            <t xml:space="preserve">98.62283</t>
           </r>
         </is>
       </c>
@@ -4891,14 +4891,14 @@
       <c r="A298" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-01-31</t>
+            <t xml:space="preserve">1997-04-30</t>
           </r>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.74877</t>
+            <t xml:space="preserve">98.46454</t>
           </r>
         </is>
       </c>
@@ -4907,14 +4907,14 @@
       <c r="A299" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-12-31</t>
+            <t xml:space="preserve">1997-03-31</t>
           </r>
         </is>
       </c>
       <c r="B299" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.96693</t>
+            <t xml:space="preserve">98.01086</t>
           </r>
         </is>
       </c>
@@ -4923,14 +4923,14 @@
       <c r="A300" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-11-30</t>
+            <t xml:space="preserve">1997-02-28</t>
           </r>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.21148</t>
+            <t xml:space="preserve">99.57632</t>
           </r>
         </is>
       </c>
@@ -4939,14 +4939,14 @@
       <c r="A301" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-10-31</t>
+            <t xml:space="preserve">1997-01-31</t>
           </r>
         </is>
       </c>
       <c r="B301" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.28708</t>
+            <t xml:space="preserve">101.75819</t>
           </r>
         </is>
       </c>
@@ -4955,14 +4955,14 @@
       <c r="A302" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-09-30</t>
+            <t xml:space="preserve">1996-12-31</t>
           </r>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.06104</t>
+            <t xml:space="preserve">101.96447</t>
           </r>
         </is>
       </c>
@@ -4971,14 +4971,14 @@
       <c r="A303" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-08-31</t>
+            <t xml:space="preserve">1996-11-30</t>
           </r>
         </is>
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.48176</t>
+            <t xml:space="preserve">101.20896</t>
           </r>
         </is>
       </c>
@@ -4987,14 +4987,14 @@
       <c r="A304" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-07-31</t>
+            <t xml:space="preserve">1996-10-31</t>
           </r>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.80212</t>
+            <t xml:space="preserve">101.29495</t>
           </r>
         </is>
       </c>
@@ -5003,14 +5003,14 @@
       <c r="A305" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-06-30</t>
+            <t xml:space="preserve">1996-09-30</t>
           </r>
         </is>
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.55453</t>
+            <t xml:space="preserve">101.06933</t>
           </r>
         </is>
       </c>
@@ -5019,14 +5019,14 @@
       <c r="A306" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-05-31</t>
+            <t xml:space="preserve">1996-08-31</t>
           </r>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.77686</t>
+            <t xml:space="preserve">100.48094</t>
           </r>
         </is>
       </c>
@@ -5035,14 +5035,14 @@
       <c r="A307" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-04-30</t>
+            <t xml:space="preserve">1996-07-31</t>
           </r>
         </is>
       </c>
       <c r="B307" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.46973</t>
+            <t xml:space="preserve">100.79959</t>
           </r>
         </is>
       </c>
@@ -5051,14 +5051,14 @@
       <c r="A308" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-03-31</t>
+            <t xml:space="preserve">1996-06-30</t>
           </r>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.73288</t>
+            <t xml:space="preserve">100.55548</t>
           </r>
         </is>
       </c>
@@ -5067,14 +5067,14 @@
       <c r="A309" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-02-29</t>
+            <t xml:space="preserve">1996-05-31</t>
           </r>
         </is>
       </c>
       <c r="B309" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.70114</t>
+            <t xml:space="preserve">99.78542</t>
           </r>
         </is>
       </c>
@@ -5083,14 +5083,14 @@
       <c r="A310" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1996-01-31</t>
+            <t xml:space="preserve">1996-04-30</t>
           </r>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.72183</t>
+            <t xml:space="preserve">98.47541</t>
           </r>
         </is>
       </c>
@@ -5099,14 +5099,14 @@
       <c r="A311" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-12-31</t>
+            <t xml:space="preserve">1996-03-31</t>
           </r>
         </is>
       </c>
       <c r="B311" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">94.20382</t>
+            <t xml:space="preserve">97.74164</t>
           </r>
         </is>
       </c>
@@ -5115,14 +5115,14 @@
       <c r="A312" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-11-30</t>
+            <t xml:space="preserve">1996-02-29</t>
           </r>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.30045</t>
+            <t xml:space="preserve">96.69822</t>
           </r>
         </is>
       </c>
@@ -5131,14 +5131,14 @@
       <c r="A313" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-10-31</t>
+            <t xml:space="preserve">1996-01-31</t>
           </r>
         </is>
       </c>
       <c r="B313" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">92.43462</t>
+            <t xml:space="preserve">95.72144</t>
           </r>
         </is>
       </c>
@@ -5147,14 +5147,14 @@
       <c r="A314" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-09-30</t>
+            <t xml:space="preserve">1995-12-31</t>
           </r>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.76577</t>
+            <t xml:space="preserve">94.2054</t>
           </r>
         </is>
       </c>
@@ -5163,14 +5163,14 @@
       <c r="A315" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-08-31</t>
+            <t xml:space="preserve">1995-11-30</t>
           </r>
         </is>
       </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.36992</t>
+            <t xml:space="preserve">93.30278</t>
           </r>
         </is>
       </c>
@@ -5179,14 +5179,14 @@
       <c r="A316" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-07-31</t>
+            <t xml:space="preserve">1995-10-31</t>
           </r>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">90.71878</t>
+            <t xml:space="preserve">92.43853</t>
           </r>
         </is>
       </c>
@@ -5195,14 +5195,14 @@
       <c r="A317" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-06-30</t>
+            <t xml:space="preserve">1995-09-30</t>
           </r>
         </is>
       </c>
       <c r="B317" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">89.32137</t>
+            <t xml:space="preserve">93.76461</t>
           </r>
         </is>
       </c>
@@ -5211,14 +5211,14 @@
       <c r="A318" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-05-31</t>
+            <t xml:space="preserve">1995-08-31</t>
           </r>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">88.83361</t>
+            <t xml:space="preserve">93.37389</t>
           </r>
         </is>
       </c>
@@ -5227,14 +5227,14 @@
       <c r="A319" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-04-30</t>
+            <t xml:space="preserve">1995-07-31</t>
           </r>
         </is>
       </c>
       <c r="B319" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">84.22227</t>
+            <t xml:space="preserve">90.72461</t>
           </r>
         </is>
       </c>
@@ -5243,14 +5243,14 @@
       <c r="A320" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-03-31</t>
+            <t xml:space="preserve">1995-06-30</t>
           </r>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">86.35592</t>
+            <t xml:space="preserve">89.31861</t>
           </r>
         </is>
       </c>
@@ -5259,14 +5259,14 @@
       <c r="A321" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-02-28</t>
+            <t xml:space="preserve">1995-05-31</t>
           </r>
         </is>
       </c>
       <c r="B321" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">92.39289</t>
+            <t xml:space="preserve">88.83719</t>
           </r>
         </is>
       </c>
@@ -5275,14 +5275,14 @@
       <c r="A322" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1995-01-31</t>
+            <t xml:space="preserve">1995-04-30</t>
           </r>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.41305</t>
+            <t xml:space="preserve">84.22423</t>
           </r>
         </is>
       </c>
@@ -5291,14 +5291,14 @@
       <c r="A323" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-12-31</t>
+            <t xml:space="preserve">1995-03-31</t>
           </r>
         </is>
       </c>
       <c r="B323" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.38126</t>
+            <t xml:space="preserve">86.36249</t>
           </r>
         </is>
       </c>
@@ -5307,14 +5307,14 @@
       <c r="A324" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-11-30</t>
+            <t xml:space="preserve">1995-02-28</t>
           </r>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">94.40648</t>
+            <t xml:space="preserve">92.39485</t>
           </r>
         </is>
       </c>
@@ -5323,14 +5323,14 @@
       <c r="A325" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-10-31</t>
+            <t xml:space="preserve">1995-01-31</t>
           </r>
         </is>
       </c>
       <c r="B325" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.55633</t>
+            <t xml:space="preserve">93.41618</t>
           </r>
         </is>
       </c>
@@ -5339,14 +5339,14 @@
       <c r="A326" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-09-30</t>
+            <t xml:space="preserve">1994-12-31</t>
           </r>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.53003</t>
+            <t xml:space="preserve">93.38331</t>
           </r>
         </is>
       </c>
@@ -5355,14 +5355,14 @@
       <c r="A327" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-08-31</t>
+            <t xml:space="preserve">1994-11-30</t>
           </r>
         </is>
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.24328</t>
+            <t xml:space="preserve">94.40654</t>
           </r>
         </is>
       </c>
@@ -5371,14 +5371,14 @@
       <c r="A328" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-07-31</t>
+            <t xml:space="preserve">1994-10-31</t>
           </r>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.37981</t>
+            <t xml:space="preserve">95.56209</t>
           </r>
         </is>
       </c>
@@ -5387,14 +5387,14 @@
       <c r="A329" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-06-30</t>
+            <t xml:space="preserve">1994-09-30</t>
           </r>
         </is>
       </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.19802</t>
+            <t xml:space="preserve">95.53056</t>
           </r>
         </is>
       </c>
@@ -5403,14 +5403,14 @@
       <c r="A330" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-05-31</t>
+            <t xml:space="preserve">1994-08-31</t>
           </r>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.47686</t>
+            <t xml:space="preserve">95.23649</t>
           </r>
         </is>
       </c>
@@ -5419,14 +5419,14 @@
       <c r="A331" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-04-30</t>
+            <t xml:space="preserve">1994-07-31</t>
           </r>
         </is>
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.91551</t>
+            <t xml:space="preserve">96.3783</t>
           </r>
         </is>
       </c>
@@ -5435,14 +5435,14 @@
       <c r="A332" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-03-31</t>
+            <t xml:space="preserve">1994-06-30</t>
           </r>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.1661</t>
+            <t xml:space="preserve">97.20391</t>
           </r>
         </is>
       </c>
@@ -5451,14 +5451,14 @@
       <c r="A333" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-02-28</t>
+            <t xml:space="preserve">1994-05-31</t>
           </r>
         </is>
       </c>
       <c r="B333" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.24164</t>
+            <t xml:space="preserve">98.48892</t>
           </r>
         </is>
       </c>
@@ -5467,14 +5467,14 @@
       <c r="A334" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1994-01-31</t>
+            <t xml:space="preserve">1994-04-30</t>
           </r>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">94.71646</t>
+            <t xml:space="preserve">97.91779</t>
           </r>
         </is>
       </c>
@@ -5483,14 +5483,14 @@
       <c r="A335" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-12-31</t>
+            <t xml:space="preserve">1994-03-31</t>
           </r>
         </is>
       </c>
       <c r="B335" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">93.3165</t>
+            <t xml:space="preserve">95.16727</t>
           </r>
         </is>
       </c>
@@ -5499,14 +5499,14 @@
       <c r="A336" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-11-30</t>
+            <t xml:space="preserve">1994-02-28</t>
           </r>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">94.4966</t>
+            <t xml:space="preserve">95.24625</t>
           </r>
         </is>
       </c>
@@ -5515,14 +5515,14 @@
       <c r="A337" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-10-31</t>
+            <t xml:space="preserve">1994-01-31</t>
           </r>
         </is>
       </c>
       <c r="B337" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">95.0434</t>
+            <t xml:space="preserve">94.72231</t>
           </r>
         </is>
       </c>
@@ -5531,14 +5531,14 @@
       <c r="A338" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-09-30</t>
+            <t xml:space="preserve">1993-12-31</t>
           </r>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.81004</t>
+            <t xml:space="preserve">93.33016</t>
           </r>
         </is>
       </c>
@@ -5547,14 +5547,14 @@
       <c r="A339" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-08-31</t>
+            <t xml:space="preserve">1993-11-30</t>
           </r>
         </is>
       </c>
       <c r="B339" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.99257</t>
+            <t xml:space="preserve">94.49798</t>
           </r>
         </is>
       </c>
@@ -5563,14 +5563,14 @@
       <c r="A340" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-07-31</t>
+            <t xml:space="preserve">1993-10-31</t>
           </r>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.28129</t>
+            <t xml:space="preserve">95.04624</t>
           </r>
         </is>
       </c>
@@ -5579,14 +5579,14 @@
       <c r="A341" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-06-30</t>
+            <t xml:space="preserve">1993-09-30</t>
           </r>
         </is>
       </c>
       <c r="B341" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">102.13063</t>
+            <t xml:space="preserve">97.815</t>
           </r>
         </is>
       </c>
@@ -5595,14 +5595,14 @@
       <c r="A342" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-05-31</t>
+            <t xml:space="preserve">1993-08-31</t>
           </r>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">101.66174</t>
+            <t xml:space="preserve">98.00057</t>
           </r>
         </is>
       </c>
@@ -5611,14 +5611,14 @@
       <c r="A343" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-04-30</t>
+            <t xml:space="preserve">1993-07-31</t>
           </r>
         </is>
       </c>
       <c r="B343" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.37231</t>
+            <t xml:space="preserve">99.29119</t>
           </r>
         </is>
       </c>
@@ -5627,14 +5627,14 @@
       <c r="A344" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-03-31</t>
+            <t xml:space="preserve">1993-06-30</t>
           </r>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96.14931</t>
+            <t xml:space="preserve">102.14296</t>
           </r>
         </is>
       </c>
@@ -5643,14 +5643,14 @@
       <c r="A345" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-02-28</t>
+            <t xml:space="preserve">1993-05-31</t>
           </r>
         </is>
       </c>
       <c r="B345" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.43252</t>
+            <t xml:space="preserve">101.66397</t>
           </r>
         </is>
       </c>
@@ -5659,14 +5659,14 @@
       <c r="A346" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1993-01-31</t>
+            <t xml:space="preserve">1993-04-30</t>
           </r>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.33193</t>
+            <t xml:space="preserve">97.37775</t>
           </r>
         </is>
       </c>
@@ -5675,14 +5675,14 @@
       <c r="A347" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-12-31</t>
+            <t xml:space="preserve">1993-03-31</t>
           </r>
         </is>
       </c>
       <c r="B347" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">104.06738</t>
+            <t xml:space="preserve">96.16159</t>
           </r>
         </is>
       </c>
@@ -5691,14 +5691,14 @@
       <c r="A348" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-11-30</t>
+            <t xml:space="preserve">1993-02-28</t>
           </r>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">107.45667</t>
+            <t xml:space="preserve">98.437</t>
           </r>
         </is>
       </c>
@@ -5707,14 +5707,14 @@
       <c r="A349" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-10-31</t>
+            <t xml:space="preserve">1993-01-31</t>
           </r>
         </is>
       </c>
       <c r="B349" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">107.03845</t>
+            <t xml:space="preserve">100.34176</t>
           </r>
         </is>
       </c>
@@ -5723,14 +5723,14 @@
       <c r="A350" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-09-30</t>
+            <t xml:space="preserve">1992-12-31</t>
           </r>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">116.18687</t>
+            <t xml:space="preserve">104.07437</t>
           </r>
         </is>
       </c>
@@ -5739,14 +5739,14 @@
       <c r="A351" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-08-31</t>
+            <t xml:space="preserve">1992-11-30</t>
           </r>
         </is>
       </c>
       <c r="B351" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">122.03762</t>
+            <t xml:space="preserve">107.46628</t>
           </r>
         </is>
       </c>
@@ -5755,14 +5755,14 @@
       <c r="A352" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-07-31</t>
+            <t xml:space="preserve">1992-10-31</t>
           </r>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">120.68359</t>
+            <t xml:space="preserve">107.05428</t>
           </r>
         </is>
       </c>
@@ -5771,14 +5771,14 @@
       <c r="A353" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-06-30</t>
+            <t xml:space="preserve">1992-09-30</t>
           </r>
         </is>
       </c>
       <c r="B353" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">113.01441</t>
+            <t xml:space="preserve">116.1913</t>
           </r>
         </is>
       </c>
@@ -5787,14 +5787,14 @@
       <c r="A354" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-05-31</t>
+            <t xml:space="preserve">1992-08-31</t>
           </r>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">112.64955</t>
+            <t xml:space="preserve">122.04472</t>
           </r>
         </is>
       </c>
@@ -5803,14 +5803,14 @@
       <c r="A355" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-04-30</t>
+            <t xml:space="preserve">1992-07-31</t>
           </r>
         </is>
       </c>
       <c r="B355" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">112.5584</t>
+            <t xml:space="preserve">120.69136</t>
           </r>
         </is>
       </c>
@@ -5819,14 +5819,14 @@
       <c r="A356" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-03-31</t>
+            <t xml:space="preserve">1992-06-30</t>
           </r>
         </is>
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">112.77774</t>
+            <t xml:space="preserve">113.02122</t>
           </r>
         </is>
       </c>
@@ -5835,14 +5835,14 @@
       <c r="A357" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1992-02-29</t>
+            <t xml:space="preserve">1992-05-31</t>
           </r>
         </is>
       </c>
       <c r="B357" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">113.38728</t>
+            <t xml:space="preserve">112.65847</t>
           </r>
         </is>
       </c>
@@ -5851,14 +5851,62 @@
       <c r="A358" s="2" t="inlineStr">
         <is>
           <r>
+            <t xml:space="preserve">1992-04-30</t>
+          </r>
+        </is>
+      </c>
+      <c r="B358" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">112.56954</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="359" customHeight="1" ht="10">
+      <c r="A359" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1992-03-31</t>
+          </r>
+        </is>
+      </c>
+      <c r="B359" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">112.79336</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="360" customHeight="1" ht="10">
+      <c r="A360" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1992-02-29</t>
+          </r>
+        </is>
+      </c>
+      <c r="B360" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">113.38895</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="361" customHeight="1" ht="10">
+      <c r="A361" s="3" t="inlineStr">
+        <is>
+          <r>
             <t xml:space="preserve">1992-01-31</t>
           </r>
         </is>
       </c>
-      <c r="B358" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">114.04456</t>
+      <c r="B361" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">114.05219</t>
           </r>
         </is>
       </c>
